--- a/2-PERSONAL/----PENDIENTES/4-TRASPASO AFP/JUNIO-2022 TRASPASO AFP.xlsx
+++ b/2-PERSONAL/----PENDIENTES/4-TRASPASO AFP/JUNIO-2022 TRASPASO AFP.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\8-TRASPASO AFP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\----PENDIENTES\4-TRASPASO AFP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED3C44-E835-4BAF-BB44-79BAC9D1746E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD66979-DE43-4914-B418-E8FAA48CA88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="3105" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>APELLIDO</t>
   </si>
@@ -66,13 +69,31 @@
   </si>
   <si>
     <t>MIRIAN VANESA</t>
+  </si>
+  <si>
+    <t>MERCADO CUYA</t>
+  </si>
+  <si>
+    <t>MAYBELYN</t>
+  </si>
+  <si>
+    <t>72790526</t>
+  </si>
+  <si>
+    <t>SEMINARIO JIMENEZ</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>77587089</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +105,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -203,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44714</v>
       </c>
@@ -542,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44714</v>
       </c>
@@ -560,18 +591,38 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="7">
+        <v>44736</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="7">
+        <v>44736</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -616,6 +667,13 @@
       <c r="E12" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:E7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2022" month="6" day="24" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
